--- a/app/src/main/res/raw/prev_chief.xlsx
+++ b/app/src/main/res/raw/prev_chief.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="204">
   <si>
     <t xml:space="preserve">ConNumber</t>
   </si>
@@ -34,49 +34,604 @@
     <t xml:space="preserve">Degree</t>
   </si>
   <si>
-    <t xml:space="preserve">Second Convocation 1967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof TVP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doctor of Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditorium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prime Minister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defence minister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chief Minister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KD 314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Army Chief</t>
+    <t xml:space="preserve">First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. S. Radhakrishnan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President of India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 Oct 1965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. D. S. Kothari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman, University Grants Commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08 Mar 1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri Morarji Desai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deputy Prime Minister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03 Mar 1968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fourth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri Y. B. Chavan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Minister of Home Affairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Nov 1968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fifth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. V. K. R. V. Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Minister for Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 Nov 1969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sixth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri Kenneth B. Keating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambassador of USA to India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 Oct 1970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seventh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri Padampat Singhania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman, Board of Governers, IIT Kanpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 Feb 1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eighth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri M. M. Suri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Director, Escorts Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Feb 1973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. H. N. Sethna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman, Atomic Energy Commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03 Oct 1973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri P. N. Haksar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deputy Chairman, Planning Commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Feb 1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eleventh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Raja Ramana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director, Bhabha Atomic Research Center, Bombay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04 Apr 1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twelfth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Triguna Sen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former Union Minister for Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 Apr 1979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirteenth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. R. K. Asundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former Professor, Banaras Hindu University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 May 1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fourteenth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. P. K. Kelkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former Director, IIT Kanpur and IIT Bombay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 May 1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fifteenth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. (Mrs.) A. Chatterjee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Association for the Cultivation of Science, Calcutta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 May 1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sixteenth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. B. V. Sreekantan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director, Tata Institute of Fundamental Research, Bombay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 May 1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seenteenth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giani Zail Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 Mar 1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eighteenth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. A. S. Paintal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director, V. Patel Chest Institute, New Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 May 1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nineteenth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. M. G. K. Menon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific Advisor to the Prime Minister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 May 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twentieth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sam G. Pitroda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advisor, Center for Development of Telematics, New Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 May 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri V. Krishna Murthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman, SAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 May 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. A. P. J. Abdul Kalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director, Defense R &amp; D Lab., Hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 May 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-Third</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. A. P. Mitra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director General, CSIR, New Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 Jun 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-Fourth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. D. S. Deodhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President, Applied Electronics Ltd., Bombay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 May 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-Fifth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Abid Husain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vice Chairman, Rajiv Gandhi Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 May 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-Sixth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Jamshed J. Irani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Director, TISCO, Jamshedpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 May 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-Seventh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. R. A. Mashelkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director, National Chemical Lab. Pune.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 May 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-Eightth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. S. M. Datta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman, Hindustan Lever Ltd., Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 May 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-Ninth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri Hari Shankar Singhania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President, J. K. Organization, New Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 May 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirtieth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri Mukesh D. Ambani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vice-Chairman &amp; MD Reliance Indu. Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 May 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty-First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri Rahul Bajaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman &amp; MD, Bajaj Auto Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 May 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty-Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Verghese Kurien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman, Institute of Rural Management, Anand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 May 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty-Third</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Murli Manohar Joshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Minister for Human Resource Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 May 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty-Fourth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri Arun Shourie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Minister for Disinvestments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 May 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty-Fifth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor C. N. R. Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honorary President of JNCASR, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 May 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty-Sixth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Anil Kakodkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 May 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty-Seventh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. K. Kasturirangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director, National Institute of Advanced Studies, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 May 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty-Eighth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri Kapil Sibal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minister for Science &amp; Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 Jun 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty-Ninth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri G. Madhavan Nair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman, Indian Space Research Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 Jun 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortieth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor Shih Choon Fong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National University of Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 May 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Jeet S. Bindra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President, Chevron Global Manufacturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 May 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Manmohan Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prime Minister of India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03 Jul 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-Third</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. P. Balram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director, Indian Institute of Science, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 May 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-Fourth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. E. Shreedharan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal Adviser, Delhi Metro Rail Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02 Jun 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-Fifth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri Pranab Mukherjee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-Sixth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Johannes Georg Bednorz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobel Laureate (Physics, 1987) IBM Zurich, Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. K. Radhakrishnan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman, ISRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-Seventh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shri Adil Zainubhai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman, Quality Council of India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Feb 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-Eighth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Tan Chorh Chuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President, National University of Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. B Prasada Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman &amp; Managing Director of Bharat Heavy Electricals Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-Ninth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Satish K. Tripathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President of the University at Buffalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Arvind Panagariya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vice-Chairman, NITI Aayog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 June 2016</t>
   </si>
 </sst>
 </file>
@@ -85,7 +640,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="HH:MM:SS\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -152,12 +707,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,22 +737,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71:M138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.1632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="256" min="5" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -203,11 +763,11 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -217,11 +777,11 @@
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -231,59 +791,717 @@
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>